--- a/태양광/To휘문박사님_2.xlsx
+++ b/태양광/To휘문박사님_2.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\태양광\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9731BD-24ED-479E-9C91-72AE23287756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99B4B6-FD63-4EE9-82E3-F97D0339720D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{B25731AF-BFCF-4C4F-9EF9-EFA70691F623}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="8" xr2:uid="{B25731AF-BFCF-4C4F-9EF9-EFA70691F623}"/>
   </bookViews>
   <sheets>
-    <sheet name="계산과정" sheetId="3" r:id="rId1"/>
-    <sheet name="데이터" sheetId="1" r:id="rId2"/>
-    <sheet name="출처" sheetId="2" r:id="rId3"/>
-    <sheet name="REC" sheetId="7" r:id="rId4"/>
-    <sheet name="REC가중치" sheetId="10" r:id="rId5"/>
-    <sheet name="SMP" sheetId="8" r:id="rId6"/>
-    <sheet name="부지 대비 모듈 면적" sheetId="4" r:id="rId7"/>
-    <sheet name="선행연구 잠재량" sheetId="5" r:id="rId8"/>
-    <sheet name="정의 및 규제" sheetId="6" r:id="rId9"/>
+    <sheet name="전체 디자인" sheetId="11" r:id="rId1"/>
+    <sheet name="계산과정" sheetId="3" r:id="rId2"/>
+    <sheet name="데이터" sheetId="1" r:id="rId3"/>
+    <sheet name="출처" sheetId="2" r:id="rId4"/>
+    <sheet name="REC" sheetId="7" r:id="rId5"/>
+    <sheet name="REC가중치" sheetId="10" r:id="rId6"/>
+    <sheet name="SMP" sheetId="8" r:id="rId7"/>
+    <sheet name="정의 및 규제" sheetId="6" r:id="rId8"/>
+    <sheet name="일사량종류" sheetId="16" r:id="rId9"/>
+    <sheet name="선행연구&gt;&gt;" sheetId="12" r:id="rId10"/>
+    <sheet name="파라미터들" sheetId="13" r:id="rId11"/>
+    <sheet name="부지 대비 모듈 면적" sheetId="4" r:id="rId12"/>
+    <sheet name="선행연구 잠재량" sheetId="5" r:id="rId13"/>
+    <sheet name="Wang et al.(2021)" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Database">데이터!$A$3:$E$16</definedName>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="225">
   <si>
     <t>CTP_KOR_NM</t>
   </si>
@@ -765,6 +770,127 @@
   </si>
   <si>
     <t>할인율 (r)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CSV</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> JSON + XML 한국에너지기술연구원_신재생자원지도데이터_태양자원_천리안2호_수평면전일사량</t>
+    </r>
+  </si>
+  <si>
+    <t>2019.09~2020.08</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CSV</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> JSON + XML 한국에너지기술연구원_신재생자원지도데이터_태양자원_천리안1호_수평면전일사량</t>
+    </r>
+  </si>
+  <si>
+    <t>2012.01~2019.12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국에너지기술연구원_태양광 발전량 예측정보 서비스</t>
+  </si>
+  <si>
+    <t>일사량 데이터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.01~2021.12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전량 예측</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식을 정의한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산식에 들어가는 데이터와 파라미터들을 찾는다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈효율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang et al. (2021) Distributed solar photovoltaic</t>
+  </si>
+  <si>
+    <t>wang et al. (2021)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일반)필요면적</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(건물)필요면적</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>에공단(2020)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang et al. (2021) Distributed solar photovoltaic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C0 is the comprehensive coefficient related to the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature variations and soiling of the modules, which is assumed to </t>
+  </si>
+  <si>
+    <t>be 80%</t>
+  </si>
+  <si>
+    <t>comprehensive coefficient (발열 등)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Wang et al. (2021)에서는 0.8로 잡아놓음)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 데이터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공공데이터포털) 에너지기술연구원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지준범 외 (2012) 위성자료를 이용한 몽골의 일사량 분포 특성</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +907,7 @@
     <numFmt numFmtId="180" formatCode="0.00000"/>
     <numFmt numFmtId="181" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +1088,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1459,7 +1594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,6 +1672,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1981,158 +2125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>70415</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>21194</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D8CEF7-C59D-79DE-A4F1-151966B02D63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="349250"/>
-          <a:ext cx="6490265" cy="9311244"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>230065</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>96468</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA95562C-4319-44B0-91E8-0402AFC346D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6539036" y="2671639"/>
-          <a:ext cx="8688018" cy="13822240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>606137</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>172715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D1BE67-6D79-4918-AFDB-E13D1CD68E99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21006955" y="4294909"/>
-          <a:ext cx="7845136" cy="11671988"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>505675</xdr:colOff>
+      <xdr:colOff>334225</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>45435</xdr:rowOff>
+      <xdr:rowOff>153385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2155,8 +2157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1273175" y="942975"/>
-          <a:ext cx="6090500" cy="7065360"/>
+          <a:off x="1076325" y="1076325"/>
+          <a:ext cx="5861900" cy="7281260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,6 +2291,334 @@
         <a:xfrm>
           <a:off x="12426950" y="4464050"/>
           <a:ext cx="7220958" cy="4528181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552593</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239C6DE4-4A80-5E86-36AF-2AAD80C65E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="571500"/>
+          <a:ext cx="2787793" cy="2368672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>146615</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>97394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D8CEF7-C59D-79DE-A4F1-151966B02D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3155950" y="0"/>
+          <a:ext cx="6236265" cy="9596994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230065</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>96468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA95562C-4319-44B0-91E8-0402AFC346D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6539036" y="2671639"/>
+          <a:ext cx="8688018" cy="13822240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>172715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D1BE67-6D79-4918-AFDB-E13D1CD68E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21006955" y="4294909"/>
+          <a:ext cx="7845136" cy="11671988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105708</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15087</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DA1986-1092-4030-A8C5-00CFC940ED3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6709708" y="4663702"/>
+          <a:ext cx="6513379" cy="3913665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579305</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0749B558-734B-4C44-A427-2ED7BE2D5048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="8834344"/>
+          <a:ext cx="6554655" cy="2708598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56403</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>369774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC59455-D2BA-409A-89A3-73D0ADB26010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6660403" y="368300"/>
+          <a:ext cx="6917371" cy="4174028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2616,1142 +2946,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B93F1-4ED4-4F47-B31E-E2528D2687A5}">
-  <dimension ref="A2:T85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941BA87-8480-40C3-9549-BB87609FC01A}">
+  <dimension ref="A5:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="M3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="2" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA797FE-448A-40AF-A771-CFBB95C5FDA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B26C7F7-2355-48DB-8B33-65898C409DDE}">
+  <dimension ref="A5:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="24">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3F52F-9127-4820-9A83-C098699E6CD6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759FA78A-CACE-4A89-A85F-180CB5655208}">
+  <dimension ref="A4:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="C7">
+        <v>1354</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>282</v>
+      </c>
+      <c r="F8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2">
-        <v>38.600200000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>128.3434</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5">
-        <f>E5*B14*B15</f>
-        <v>8247.5399999999991</v>
-      </c>
-      <c r="K5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5">
-        <f>J5*B24*B17</f>
-        <v>549.8359999999999</v>
-      </c>
-      <c r="M5" s="5">
-        <v>22500</v>
-      </c>
-      <c r="N5" s="14">
-        <f>(($B$26+($B$27+M5*$B$33*$B$25)*$C$64)*($B$15/$B$25)) / (L5*$J$64)</f>
-        <v>186.56082347477081</v>
-      </c>
-      <c r="O5" s="16">
-        <f>B28+B30</f>
-        <v>186.46486004648341</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5">
-        <f>L5</f>
-        <v>549.8359999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6">
-        <f>E5*B14*B15</f>
-        <v>8247.5399999999991</v>
-      </c>
-      <c r="K6" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6">
-        <f>J5*C24*B17</f>
-        <v>412.37699999999995</v>
-      </c>
-      <c r="M6" s="5">
-        <v>22500</v>
-      </c>
-      <c r="N6" s="14">
-        <f>(($C$26+($C$27+M6*$C$33*$C$25)*$C$64)*($B$15/$C$25)) / (L6*$J$64)</f>
-        <v>237.21809697602274</v>
-      </c>
-      <c r="O6" s="16">
-        <f>C28+C30</f>
-        <v>186.46486004648341</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>137347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>365</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <f>1/10^(9)</f>
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>0.2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="14">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C24" s="14">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="C25" s="14">
-        <v>19.8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26">
-        <v>1366000</v>
-      </c>
-      <c r="C26">
-        <v>1719843</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>20490</v>
-      </c>
-      <c r="C27">
-        <v>25798</v>
-      </c>
-      <c r="D27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="15">
-        <f>SMP!J5</f>
-        <v>131.072</v>
-      </c>
-      <c r="C28" s="15">
-        <f>SMP!J5</f>
-        <v>131.072</v>
-      </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="15">
-        <f>B29*REC!P3/1000</f>
-        <v>55.392860046483399</v>
-      </c>
-      <c r="C30" s="15">
-        <f>C29*REC!P3/1000</f>
-        <v>55.392860046483399</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C31">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="15">
-        <v>20</v>
-      </c>
-      <c r="C32" s="15">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33">
-        <v>0.05</v>
-      </c>
-      <c r="C33">
-        <v>0.05</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B34" s="13">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C34" s="13">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="13">
-        <f>($B$26+($B$27+M5*$B$33*$B$25)*$C$64)*($B$15/$B$25)</f>
-        <v>1241998.7601730064</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37">
-        <f>(($B$26+($B$27+M5*$B$33*$B$25)*$C$64)*($B$15/$B$25)) / (L5*$J$64)</f>
-        <v>186.56082347477081</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="13">
-        <f>L5*$J$64</f>
-        <v>6657.3396120379248</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38">
-        <f>B37/B38</f>
-        <v>186.56082347477081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="42" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="18"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="20">
-        <f>1/(1+$B$31)^(A44)</f>
-        <v>0.95693779904306231</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="21">
-        <f t="shared" ref="G44:G63" si="0">(1-$B$34)^(E44)</f>
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="I44" t="s">
-        <v>177</v>
-      </c>
-      <c r="J44" s="21">
-        <f t="shared" ref="J44:J63" si="1">C44*G44</f>
-        <v>0.94928229665071784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="20">
-        <f>1/(1+$B$31)^(A45)</f>
-        <v>0.91572995123738021</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="21">
-        <f t="shared" si="0"/>
-        <v>0.98406399999999994</v>
-      </c>
-      <c r="I45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="21">
-        <f t="shared" si="1"/>
-        <v>0.90113687873446124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="20">
-        <f>1/(1+$B$31)^(A46)</f>
-        <v>0.87629660405490928</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="21">
-        <f t="shared" si="0"/>
-        <v>0.97619148799999989</v>
-      </c>
-      <c r="I46" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="21">
-        <f t="shared" si="1"/>
-        <v>0.85543328584170863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="20">
-        <f t="shared" ref="C47:C63" si="2">1/(1+$B$31)^(A47)</f>
-        <v>0.83856134359321488</v>
-      </c>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="21">
-        <f t="shared" si="0"/>
-        <v>0.96838195609599986</v>
-      </c>
-      <c r="I47" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="21">
-        <f t="shared" si="1"/>
-        <v>0.81204767421528723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="20">
-        <f t="shared" si="2"/>
-        <v>0.80245104650068411</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-      <c r="F48" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="21">
-        <f t="shared" si="0"/>
-        <v>0.96063490044723188</v>
-      </c>
-      <c r="I48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J48" s="21">
-        <f t="shared" si="1"/>
-        <v>0.77086248116896172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="20">
-        <f t="shared" si="2"/>
-        <v>0.76789573827816682</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="21">
-        <f t="shared" si="0"/>
-        <v>0.95294982124365391</v>
-      </c>
-      <c r="I49" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="21">
-        <f t="shared" si="1"/>
-        <v>0.73176610652594276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="20">
-        <f t="shared" si="2"/>
-        <v>0.73482845768245619</v>
-      </c>
-      <c r="E50">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="21">
-        <f t="shared" si="0"/>
-        <v>0.9453262226737047</v>
-      </c>
-      <c r="I50" t="s">
-        <v>183</v>
-      </c>
-      <c r="J50" s="21">
-        <f t="shared" si="1"/>
-        <v>0.69465261021410052</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="20">
-        <f t="shared" si="2"/>
-        <v>0.70318512696885782</v>
-      </c>
-      <c r="E51">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="21">
-        <f t="shared" si="0"/>
-        <v>0.93776361289231502</v>
-      </c>
-      <c r="I51" t="s">
-        <v>184</v>
-      </c>
-      <c r="J51" s="21">
-        <f t="shared" si="1"/>
-        <v>0.65942142519845737</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C52" s="20">
-        <f t="shared" si="2"/>
-        <v>0.67290442772139514</v>
-      </c>
-      <c r="E52">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="21">
-        <f t="shared" si="0"/>
-        <v>0.93026150398917651</v>
-      </c>
-      <c r="I52" t="s">
-        <v>185</v>
-      </c>
-      <c r="J52" s="21">
-        <f t="shared" si="1"/>
-        <v>0.62597708497308113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="20">
-        <f t="shared" si="2"/>
-        <v>0.64392768203004325</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="21">
-        <f t="shared" si="0"/>
-        <v>0.92281941195726302</v>
-      </c>
-      <c r="I53" t="s">
-        <v>186</v>
-      </c>
-      <c r="J53" s="21">
-        <f t="shared" si="1"/>
-        <v>0.59422896487396792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="20">
-        <f t="shared" si="2"/>
-        <v>0.61619873878473042</v>
-      </c>
-      <c r="E54">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" s="21">
-        <f t="shared" si="0"/>
-        <v>0.9154368566616049</v>
-      </c>
-      <c r="I54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J54" s="21">
-        <f t="shared" si="1"/>
-        <v>0.56409103651193893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>12</v>
-      </c>
-      <c r="B55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="20">
-        <f t="shared" si="2"/>
-        <v>0.58966386486577083</v>
-      </c>
-      <c r="E55">
-        <v>12</v>
-      </c>
-      <c r="F55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="21">
-        <f t="shared" si="0"/>
-        <v>0.90811336180831204</v>
-      </c>
-      <c r="I55" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" s="21">
-        <f t="shared" si="1"/>
-        <v>0.53548163466013732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="20">
-        <f t="shared" si="2"/>
-        <v>0.56427164101987637</v>
-      </c>
-      <c r="E56">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="21">
-        <f t="shared" si="0"/>
-        <v>0.90084845491384558</v>
-      </c>
-      <c r="I56" t="s">
-        <v>189</v>
-      </c>
-      <c r="J56" s="21">
-        <f t="shared" si="1"/>
-        <v>0.50832323596445572</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>14</v>
-      </c>
-      <c r="B57" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="20">
-        <f t="shared" si="2"/>
-        <v>0.53997286221997753</v>
-      </c>
-      <c r="E57">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="21">
-        <f t="shared" si="0"/>
-        <v>0.89364166727453465</v>
-      </c>
-      <c r="I57" t="s">
-        <v>190</v>
-      </c>
-      <c r="J57" s="21">
-        <f t="shared" si="1"/>
-        <v>0.48254224887726332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="20">
-        <f t="shared" si="2"/>
-        <v>0.51672044231576797</v>
-      </c>
-      <c r="E58">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="21">
-        <f t="shared" si="0"/>
-        <v>0.88649253393633842</v>
-      </c>
-      <c r="I58" t="s">
-        <v>191</v>
-      </c>
-      <c r="J58" s="21">
-        <f t="shared" si="1"/>
-        <v>0.45806881424521073</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="20">
-        <f t="shared" si="2"/>
-        <v>0.49446932279020878</v>
-      </c>
-      <c r="E59">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>151</v>
-      </c>
-      <c r="G59" s="21">
-        <f t="shared" si="0"/>
-        <v>0.87940059366484769</v>
-      </c>
-      <c r="I59" t="s">
-        <v>192</v>
-      </c>
-      <c r="J59" s="21">
-        <f t="shared" si="1"/>
-        <v>0.43483661601076479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>17</v>
-      </c>
-      <c r="B60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" s="20">
-        <f t="shared" si="2"/>
-        <v>0.47317638544517582</v>
-      </c>
-      <c r="E60">
-        <v>17</v>
-      </c>
-      <c r="F60" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="21">
-        <f t="shared" si="0"/>
-        <v>0.87236538891552895</v>
-      </c>
-      <c r="I60" t="s">
-        <v>193</v>
-      </c>
-      <c r="J60" s="21">
-        <f t="shared" si="1"/>
-        <v>0.41278270151452501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>18</v>
-      </c>
-      <c r="B61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="20">
-        <f t="shared" si="2"/>
-        <v>0.45280036884705832</v>
-      </c>
-      <c r="E61">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
-        <v>153</v>
-      </c>
-      <c r="G61" s="21">
-        <f t="shared" si="0"/>
-        <v>0.86538646580420464</v>
-      </c>
-      <c r="I61" t="s">
-        <v>194</v>
-      </c>
-      <c r="J61" s="21">
-        <f t="shared" si="1"/>
-        <v>0.39184731091139607</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>19</v>
-      </c>
-      <c r="B62" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="20">
-        <f t="shared" si="2"/>
-        <v>0.43330178837039074</v>
-      </c>
-      <c r="E62">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="21">
-        <f t="shared" si="0"/>
-        <v>0.85846337407777096</v>
-      </c>
-      <c r="I62" t="s">
-        <v>195</v>
-      </c>
-      <c r="J62" s="21">
-        <f t="shared" si="1"/>
-        <v>0.37197371523837791</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>20</v>
-      </c>
-      <c r="B63" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="20">
-        <f t="shared" si="2"/>
-        <v>0.41464285968458453</v>
-      </c>
-      <c r="E63">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G63" s="21">
-        <f t="shared" si="0"/>
-        <v>0.85159566708514878</v>
-      </c>
-      <c r="I63" t="s">
-        <v>196</v>
-      </c>
-      <c r="J63" s="21">
-        <f t="shared" si="1"/>
-        <v>0.35310806269518752</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C64" s="20">
-        <f>SUM(C44:C63)</f>
-        <v>13.007936451453711</v>
-      </c>
-      <c r="J64" s="21">
-        <f>SUM(J44:J63)</f>
-        <v>12.107864185025946</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="20"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="20"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="20"/>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="20"/>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="20"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="20"/>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="20"/>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="20"/>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="20"/>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="20"/>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="20"/>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="20"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="20"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="20"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="20"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="20"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="20"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="20"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="20"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322D71F7-71C9-498C-9102-A88BA7CCDF02}">
+  <dimension ref="B4:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3761,740 +3289,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D17BF1-C5F6-41A6-B91E-78CD1605EDB9}">
-  <dimension ref="A2:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B93F1-4ED4-4F47-B31E-E2528D2687A5}">
+  <dimension ref="A2:T85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.08203125" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="M3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>38.600200000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>128.3434</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <f>E5*B14*B15</f>
+        <v>8247.5399999999991</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5">
+        <f>J5*B24*B17</f>
+        <v>549.8359999999999</v>
+      </c>
+      <c r="M5" s="5">
+        <v>22500</v>
+      </c>
+      <c r="N5" s="14">
+        <f>(($B$26+($B$27+M5*$B$33*$B$25)*$C$64)*($B$15/$B$25)) / (L5*$J$64)</f>
+        <v>186.56082347477081</v>
+      </c>
+      <c r="O5" s="16">
+        <f>B28+B30</f>
+        <v>186.46486004648341</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5">
+        <f>L5</f>
+        <v>549.8359999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <f>E5*B14*B15</f>
+        <v>8247.5399999999991</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6">
+        <f>J5*C24*B17</f>
+        <v>412.37699999999995</v>
+      </c>
+      <c r="M6" s="5">
+        <v>22500</v>
+      </c>
+      <c r="N6" s="14">
+        <f>(($C$26+($C$27+M6*$C$33*$C$25)*$C$64)*($B$15/$C$25)) / (L6*$J$64)</f>
+        <v>237.21809697602274</v>
+      </c>
+      <c r="O6" s="16">
+        <f>C28+C30</f>
+        <v>186.46486004648341</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>365</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>1/10^(9)</f>
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="14">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C24" s="14">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="C25" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>1366000</v>
+      </c>
+      <c r="C26">
+        <v>1719843</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>20490</v>
+      </c>
+      <c r="C27">
+        <v>25798</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="15">
+        <f>SMP!J5</f>
+        <v>131.072</v>
+      </c>
+      <c r="C28" s="15">
+        <f>SMP!J5</f>
+        <v>131.072</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="15">
+        <f>B29*REC!P3/1000</f>
+        <v>55.392860046483399</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C29*REC!P3/1000</f>
+        <v>55.392860046483399</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="15">
+        <v>20</v>
+      </c>
+      <c r="C32" s="15">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+      <c r="C33">
+        <v>0.05</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C34" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="13">
+        <f>($B$26+($B$27+M5*$B$33*$B$25)*$C$64)*($B$15/$B$25)</f>
+        <v>1241998.7601730064</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37">
+        <f>(($B$26+($B$27+M5*$B$33*$B$25)*$C$64)*($B$15/$B$25)) / (L5*$J$64)</f>
+        <v>186.56082347477081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="13">
+        <f>L5*$J$64</f>
+        <v>6657.3396120379248</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38">
+        <f>B37/B38</f>
+        <v>186.56082347477081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="42" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C43" s="18"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="20">
+        <f>1/(1+$B$31)^(A44)</f>
+        <v>0.95693779904306231</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="21">
+        <f t="shared" ref="G44:G63" si="0">(1-$B$34)^(E44)</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="21">
+        <f t="shared" ref="J44:J63" si="1">C44*G44</f>
+        <v>0.94928229665071784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="20">
+        <f>1/(1+$B$31)^(A45)</f>
+        <v>0.91572995123738021</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="21">
+        <f t="shared" si="0"/>
+        <v>0.98406399999999994</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" s="21">
+        <f t="shared" si="1"/>
+        <v>0.90113687873446124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="20">
+        <f>1/(1+$B$31)^(A46)</f>
+        <v>0.87629660405490928</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="21">
+        <f t="shared" si="0"/>
+        <v>0.97619148799999989</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="21">
+        <f t="shared" si="1"/>
+        <v>0.85543328584170863</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="20">
+        <f t="shared" ref="C47:C63" si="2">1/(1+$B$31)^(A47)</f>
+        <v>0.83856134359321488</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96838195609599986</v>
+      </c>
+      <c r="I47" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="21">
+        <f t="shared" si="1"/>
+        <v>0.81204767421528723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="20">
+        <f t="shared" si="2"/>
+        <v>0.80245104650068411</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="21">
+        <f t="shared" si="0"/>
+        <v>0.96063490044723188</v>
+      </c>
+      <c r="I48" t="s">
+        <v>181</v>
+      </c>
+      <c r="J48" s="21">
+        <f t="shared" si="1"/>
+        <v>0.77086248116896172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="20">
+        <f t="shared" si="2"/>
+        <v>0.76789573827816682</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" s="21">
+        <f t="shared" si="0"/>
+        <v>0.95294982124365391</v>
+      </c>
+      <c r="I49" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" s="21">
+        <f t="shared" si="1"/>
+        <v>0.73176610652594276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="20">
+        <f t="shared" si="2"/>
+        <v>0.73482845768245619</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="21">
+        <f t="shared" si="0"/>
+        <v>0.9453262226737047</v>
+      </c>
+      <c r="I50" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="21">
+        <f t="shared" si="1"/>
+        <v>0.69465261021410052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="20">
+        <f t="shared" si="2"/>
+        <v>0.70318512696885782</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="21">
+        <f t="shared" si="0"/>
+        <v>0.93776361289231502</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" s="21">
+        <f t="shared" si="1"/>
+        <v>0.65942142519845737</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="20">
+        <f t="shared" si="2"/>
+        <v>0.67290442772139514</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="21">
+        <f t="shared" si="0"/>
+        <v>0.93026150398917651</v>
+      </c>
+      <c r="I52" t="s">
+        <v>185</v>
+      </c>
+      <c r="J52" s="21">
+        <f t="shared" si="1"/>
+        <v>0.62597708497308113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="20">
+        <f t="shared" si="2"/>
+        <v>0.64392768203004325</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="21">
+        <f t="shared" si="0"/>
+        <v>0.92281941195726302</v>
+      </c>
+      <c r="I53" t="s">
+        <v>186</v>
+      </c>
+      <c r="J53" s="21">
+        <f t="shared" si="1"/>
+        <v>0.59422896487396792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="20">
+        <f t="shared" si="2"/>
+        <v>0.61619873878473042</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="21">
+        <f t="shared" si="0"/>
+        <v>0.9154368566616049</v>
+      </c>
+      <c r="I54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54" s="21">
+        <f t="shared" si="1"/>
+        <v>0.56409103651193893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="20">
+        <f t="shared" si="2"/>
+        <v>0.58966386486577083</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="21">
+        <f t="shared" si="0"/>
+        <v>0.90811336180831204</v>
+      </c>
+      <c r="I55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" s="21">
+        <f t="shared" si="1"/>
+        <v>0.53548163466013732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="20">
+        <f t="shared" si="2"/>
+        <v>0.56427164101987637</v>
+      </c>
+      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="21">
+        <f t="shared" si="0"/>
+        <v>0.90084845491384558</v>
+      </c>
+      <c r="I56" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="21">
+        <f t="shared" si="1"/>
+        <v>0.50832323596445572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="20">
+        <f t="shared" si="2"/>
+        <v>0.53997286221997753</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="21">
+        <f t="shared" si="0"/>
+        <v>0.89364166727453465</v>
+      </c>
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="21">
+        <f t="shared" si="1"/>
+        <v>0.48254224887726332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="20">
+        <f t="shared" si="2"/>
+        <v>0.51672044231576797</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="21">
+        <f t="shared" si="0"/>
+        <v>0.88649253393633842</v>
+      </c>
+      <c r="I58" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" s="21">
+        <f t="shared" si="1"/>
+        <v>0.45806881424521073</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="20">
+        <f t="shared" si="2"/>
+        <v>0.49446932279020878</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="21">
+        <f t="shared" si="0"/>
+        <v>0.87940059366484769</v>
+      </c>
+      <c r="I59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59" s="21">
+        <f t="shared" si="1"/>
+        <v>0.43483661601076479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="20">
+        <f t="shared" si="2"/>
+        <v>0.47317638544517582</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G60" s="21">
+        <f t="shared" si="0"/>
+        <v>0.87236538891552895</v>
+      </c>
+      <c r="I60" t="s">
+        <v>193</v>
+      </c>
+      <c r="J60" s="21">
+        <f t="shared" si="1"/>
+        <v>0.41278270151452501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>38.600200000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>128.3434</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2.2595999999999998</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="20">
+        <f t="shared" si="2"/>
+        <v>0.45280036884705832</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="21">
+        <f t="shared" si="0"/>
+        <v>0.86538646580420464</v>
+      </c>
+      <c r="I61" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" s="21">
+        <f t="shared" si="1"/>
+        <v>0.39184731091139607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62">
         <v>19</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="20">
+        <f t="shared" si="2"/>
+        <v>0.43330178837039074</v>
+      </c>
+      <c r="E62">
         <v>19</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="F62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="21">
+        <f t="shared" si="0"/>
+        <v>0.85846337407777096</v>
+      </c>
+      <c r="I62" t="s">
+        <v>195</v>
+      </c>
+      <c r="J62" s="21">
+        <f t="shared" si="1"/>
+        <v>0.37197371523837791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63">
         <v>20</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="20">
+        <f t="shared" si="2"/>
+        <v>0.41464285968458453</v>
+      </c>
+      <c r="E63">
         <v>20</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>38.573700000000002</v>
-      </c>
-      <c r="D9" s="2">
-        <v>128.3433</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>38.573700000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <v>128.3672</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2.2887</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N15" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>38.600200000000001</v>
-      </c>
-      <c r="D23" s="2">
-        <v>128.3434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2">
-        <v>38.573700000000002</v>
-      </c>
-      <c r="D28" s="2">
-        <v>128.3433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
-        <v>38.573700000000002</v>
-      </c>
-      <c r="D33" s="2">
-        <v>128.3672</v>
-      </c>
+      <c r="F63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G63" s="21">
+        <f t="shared" si="0"/>
+        <v>0.85159566708514878</v>
+      </c>
+      <c r="I63" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="21">
+        <f t="shared" si="1"/>
+        <v>0.35310806269518752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C64" s="20">
+        <f>SUM(C44:C63)</f>
+        <v>13.007936451453711</v>
+      </c>
+      <c r="J64" s="21">
+        <f>SUM(J44:J63)</f>
+        <v>12.107864185025946</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C73" s="20"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C74" s="20"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C75" s="20"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C76" s="20"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C77" s="20"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C78" s="20"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C79" s="20"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C80" s="20"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C81" s="20"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C82" s="20"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C83" s="20"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C84" s="20"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C85" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -4504,37 +4434,822 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B90905-7FA6-4B59-9158-E0242E5F8D6D}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D17BF1-C5F6-41A6-B91E-78CD1605EDB9}">
+  <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.58203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38.600200000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>128.3434</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.2595999999999998</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>38.573700000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <v>128.3433</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>38.573700000000002</v>
+      </c>
+      <c r="D14" s="2">
+        <v>128.3672</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.2887</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>38.600200000000001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>128.3434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>38.573700000000002</v>
+      </c>
+      <c r="D28" s="2">
+        <v>128.3433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>38.573700000000002</v>
+      </c>
+      <c r="D33" s="2">
+        <v>128.3672</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B90905-7FA6-4B59-9158-E0242E5F8D6D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://www.data.go.kr/data/15066438/fileData.do" xr:uid="{6FD15193-DB15-4B8A-96D3-761CEA9EC006}"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://www.data.go.kr/data/15066413/fileData.do" xr:uid="{077D2F6C-E085-45B6-9AB8-426737ACA70D}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://www.data.go.kr/data/15125094/openapi.do?recommendDataYn=Y" xr:uid="{AFC9675B-E62B-4DA2-B5E9-D53240983D28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBFC98F-AF5C-44A6-8CCA-0B7B8BD07287}">
   <dimension ref="B1:AS112"/>
   <sheetViews>
@@ -4542,27 +5257,27 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:45" x14ac:dyDescent="0.45">
       <c r="C1" s="24" t="s">
         <v>66</v>
       </c>
@@ -4579,7 +5294,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>69</v>
       </c>
@@ -4608,7 +5323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2019</v>
       </c>
@@ -4661,7 +5376,7 @@
         <v>55392.860046483402</v>
       </c>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2020</v>
       </c>
@@ -4702,7 +5417,7 @@
         <v>381500886285</v>
       </c>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2021</v>
       </c>
@@ -4743,7 +5458,7 @@
         <v>360110595430</v>
       </c>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2022</v>
       </c>
@@ -4784,7 +5499,7 @@
         <v>780916450013</v>
       </c>
     </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2023</v>
       </c>
@@ -4825,10 +5540,10 @@
         <v>1062036071421</v>
       </c>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.45">
       <c r="D8" s="7"/>
     </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -4950,7 +5665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B11" s="9">
         <v>43468</v>
       </c>
@@ -5082,7 +5797,7 @@
         <v>11650048</v>
       </c>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B12" s="9">
         <v>43473</v>
       </c>
@@ -5214,7 +5929,7 @@
         <v>90360105</v>
       </c>
     </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B13" s="9">
         <v>43475</v>
       </c>
@@ -5346,7 +6061,7 @@
         <v>30044850</v>
       </c>
     </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B14" s="9">
         <v>43480</v>
       </c>
@@ -5478,7 +6193,7 @@
         <v>22179430</v>
       </c>
     </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B15" s="9">
         <v>43482</v>
       </c>
@@ -5610,7 +6325,7 @@
         <v>14276525</v>
       </c>
     </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B16" s="9">
         <v>43487</v>
       </c>
@@ -5742,7 +6457,7 @@
         <v>45584784</v>
       </c>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B17" s="9">
         <v>43489</v>
       </c>
@@ -5874,7 +6589,7 @@
         <v>62522111</v>
       </c>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B18" s="9">
         <v>43494</v>
       </c>
@@ -6006,7 +6721,7 @@
         <v>470150082</v>
       </c>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B19" s="9">
         <v>43496</v>
       </c>
@@ -6138,7 +6853,7 @@
         <v>411026928</v>
       </c>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <v>43503</v>
       </c>
@@ -6270,7 +6985,7 @@
         <v>452211786</v>
       </c>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B21" s="9">
         <v>43508</v>
       </c>
@@ -6402,7 +7117,7 @@
         <v>600744924</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B22" s="9">
         <v>43510</v>
       </c>
@@ -6534,7 +7249,7 @@
         <v>424633590</v>
       </c>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B23" s="9">
         <v>43515</v>
       </c>
@@ -6666,7 +7381,7 @@
         <v>280703805</v>
       </c>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B24" s="9">
         <v>43517</v>
       </c>
@@ -6798,7 +7513,7 @@
         <v>63051294</v>
       </c>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B25" s="9">
         <v>43522</v>
       </c>
@@ -6930,7 +7645,7 @@
         <v>115356607</v>
       </c>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B26" s="9">
         <v>43524</v>
       </c>
@@ -7062,7 +7777,7 @@
         <v>82501065</v>
       </c>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B27" s="9">
         <v>43529</v>
       </c>
@@ -7194,7 +7909,7 @@
         <v>176040424</v>
       </c>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B28" s="9">
         <v>43531</v>
       </c>
@@ -7326,7 +8041,7 @@
         <v>264198772</v>
       </c>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B29" s="9">
         <v>43536</v>
       </c>
@@ -7458,7 +8173,7 @@
         <v>215804595</v>
       </c>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B30" s="9">
         <v>43538</v>
       </c>
@@ -7590,7 +8305,7 @@
         <v>158546160</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B31" s="9">
         <v>43543</v>
       </c>
@@ -7722,7 +8437,7 @@
         <v>183027516</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B32" s="9">
         <v>43545</v>
       </c>
@@ -7854,7 +8569,7 @@
         <v>229497792</v>
       </c>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B33" s="9">
         <v>43550</v>
       </c>
@@ -7986,7 +8701,7 @@
         <v>213490056</v>
       </c>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B34" s="9">
         <v>43552</v>
       </c>
@@ -8118,7 +8833,7 @@
         <v>245456510</v>
       </c>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B35" s="9">
         <v>43557</v>
       </c>
@@ -8250,7 +8965,7 @@
         <v>146470110</v>
       </c>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B36" s="9">
         <v>43559</v>
       </c>
@@ -8382,7 +9097,7 @@
         <v>46506257</v>
       </c>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B37" s="9">
         <v>43564</v>
       </c>
@@ -8514,7 +9229,7 @@
         <v>84136032</v>
       </c>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B38" s="9">
         <v>43566</v>
       </c>
@@ -8646,7 +9361,7 @@
         <v>82480177</v>
       </c>
     </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B39" s="9">
         <v>43571</v>
       </c>
@@ -8778,7 +9493,7 @@
         <v>88543905</v>
       </c>
     </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B40" s="9">
         <v>43573</v>
       </c>
@@ -8910,7 +9625,7 @@
         <v>30494700</v>
       </c>
     </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B41" s="9">
         <v>43578</v>
       </c>
@@ -9042,7 +9757,7 @@
         <v>6594812</v>
       </c>
     </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B42" s="9">
         <v>43580</v>
       </c>
@@ -9174,7 +9889,7 @@
         <v>28343992</v>
       </c>
     </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B43" s="9">
         <v>43585</v>
       </c>
@@ -9306,7 +10021,7 @@
         <v>15812046</v>
       </c>
     </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B44" s="9">
         <v>43587</v>
       </c>
@@ -9438,7 +10153,7 @@
         <v>18318741</v>
       </c>
     </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B45" s="9">
         <v>43592</v>
       </c>
@@ -9570,7 +10285,7 @@
         <v>44780184</v>
       </c>
     </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B46" s="9">
         <v>43594</v>
       </c>
@@ -9702,7 +10417,7 @@
         <v>13654920</v>
       </c>
     </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B47" s="9">
         <v>43599</v>
       </c>
@@ -9834,7 +10549,7 @@
         <v>12921120</v>
       </c>
     </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B48" s="9">
         <v>43601</v>
       </c>
@@ -9966,7 +10681,7 @@
         <v>70868128</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B49" s="9">
         <v>43606</v>
       </c>
@@ -10098,7 +10813,7 @@
         <v>9367920</v>
       </c>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B50" s="9">
         <v>43608</v>
       </c>
@@ -10230,7 +10945,7 @@
         <v>82207325</v>
       </c>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B51" s="9">
         <v>43613</v>
       </c>
@@ -10362,7 +11077,7 @@
         <v>86969787</v>
       </c>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B52" s="9">
         <v>43615</v>
       </c>
@@ -10494,7 +11209,7 @@
         <v>286150656</v>
       </c>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B53" s="9">
         <v>43620</v>
       </c>
@@ -10626,7 +11341,7 @@
         <v>29858976</v>
       </c>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B54" s="9">
         <v>43627</v>
       </c>
@@ -10758,7 +11473,7 @@
         <v>24509172</v>
       </c>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B55" s="9">
         <v>43629</v>
       </c>
@@ -10890,7 +11605,7 @@
         <v>42536568</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B56" s="9">
         <v>43634</v>
       </c>
@@ -11022,7 +11737,7 @@
         <v>25322215</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B57" s="9">
         <v>43636</v>
       </c>
@@ -11154,7 +11869,7 @@
         <v>48115872</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B58" s="9">
         <v>43641</v>
       </c>
@@ -11286,7 +12001,7 @@
         <v>60036333</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B59" s="9">
         <v>43643</v>
       </c>
@@ -11418,7 +12133,7 @@
         <v>206356920</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B60" s="9">
         <v>43648</v>
       </c>
@@ -11550,7 +12265,7 @@
         <v>56303240</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B61" s="9">
         <v>43650</v>
       </c>
@@ -11682,7 +12397,7 @@
         <v>285175482</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B62" s="9">
         <v>43655</v>
       </c>
@@ -11814,7 +12529,7 @@
         <v>17401280</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B63" s="9">
         <v>43657</v>
       </c>
@@ -11946,7 +12661,7 @@
         <v>139677365</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B64" s="9">
         <v>43662</v>
       </c>
@@ -12078,7 +12793,7 @@
         <v>38031650</v>
       </c>
     </row>
-    <row r="65" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B65" s="9">
         <v>43664</v>
       </c>
@@ -12210,7 +12925,7 @@
         <v>73946840</v>
       </c>
     </row>
-    <row r="66" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B66" s="9">
         <v>43669</v>
       </c>
@@ -12342,7 +13057,7 @@
         <v>49339396</v>
       </c>
     </row>
-    <row r="67" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B67" s="9">
         <v>43671</v>
       </c>
@@ -12474,7 +13189,7 @@
         <v>40751360</v>
       </c>
     </row>
-    <row r="68" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B68" s="9">
         <v>43676</v>
       </c>
@@ -12606,7 +13321,7 @@
         <v>268636338</v>
       </c>
     </row>
-    <row r="69" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B69" s="9">
         <v>43678</v>
       </c>
@@ -12738,7 +13453,7 @@
         <v>18063510</v>
       </c>
     </row>
-    <row r="70" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B70" s="9">
         <v>43683</v>
       </c>
@@ -12870,7 +13585,7 @@
         <v>355598520</v>
       </c>
     </row>
-    <row r="71" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B71" s="9">
         <v>43685</v>
       </c>
@@ -13002,7 +13717,7 @@
         <v>84835710</v>
       </c>
     </row>
-    <row r="72" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B72" s="9">
         <v>43690</v>
       </c>
@@ -13134,7 +13849,7 @@
         <v>37430160</v>
       </c>
     </row>
-    <row r="73" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B73" s="9">
         <v>43697</v>
       </c>
@@ -13266,7 +13981,7 @@
         <v>133614875</v>
       </c>
     </row>
-    <row r="74" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B74" s="9">
         <v>43699</v>
       </c>
@@ -13398,7 +14113,7 @@
         <v>45974411</v>
       </c>
     </row>
-    <row r="75" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B75" s="9">
         <v>43704</v>
       </c>
@@ -13530,7 +14245,7 @@
         <v>1039013178</v>
       </c>
     </row>
-    <row r="76" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B76" s="9">
         <v>43706</v>
       </c>
@@ -13662,7 +14377,7 @@
         <v>204446212</v>
       </c>
     </row>
-    <row r="77" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B77" s="9">
         <v>43711</v>
       </c>
@@ -13794,7 +14509,7 @@
         <v>99442560</v>
       </c>
     </row>
-    <row r="78" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B78" s="9">
         <v>43713</v>
       </c>
@@ -13926,7 +14641,7 @@
         <v>103603920</v>
       </c>
     </row>
-    <row r="79" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B79" s="9">
         <v>43718</v>
       </c>
@@ -14058,7 +14773,7 @@
         <v>44166028</v>
       </c>
     </row>
-    <row r="80" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B80" s="9">
         <v>43725</v>
       </c>
@@ -14190,7 +14905,7 @@
         <v>276504072</v>
       </c>
     </row>
-    <row r="81" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B81" s="9">
         <v>43727</v>
       </c>
@@ -14322,7 +15037,7 @@
         <v>24944868</v>
       </c>
     </row>
-    <row r="82" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B82" s="9">
         <v>43732</v>
       </c>
@@ -14454,7 +15169,7 @@
         <v>55293912</v>
       </c>
     </row>
-    <row r="83" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B83" s="9">
         <v>43734</v>
       </c>
@@ -14586,7 +15301,7 @@
         <v>234224847</v>
       </c>
     </row>
-    <row r="84" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B84" s="9">
         <v>43739</v>
       </c>
@@ -14718,7 +15433,7 @@
         <v>21615654</v>
       </c>
     </row>
-    <row r="85" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B85" s="9">
         <v>43746</v>
       </c>
@@ -14850,7 +15565,7 @@
         <v>63187704</v>
       </c>
     </row>
-    <row r="86" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B86" s="9">
         <v>43748</v>
       </c>
@@ -14982,7 +15697,7 @@
         <v>26689215</v>
       </c>
     </row>
-    <row r="87" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B87" s="9">
         <v>43753</v>
       </c>
@@ -15114,7 +15829,7 @@
         <v>11080503</v>
       </c>
     </row>
-    <row r="88" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B88" s="9">
         <v>43755</v>
       </c>
@@ -15246,7 +15961,7 @@
         <v>204194662</v>
       </c>
     </row>
-    <row r="89" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B89" s="9">
         <v>43760</v>
       </c>
@@ -15378,7 +16093,7 @@
         <v>58482144</v>
       </c>
     </row>
-    <row r="90" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B90" s="9">
         <v>43762</v>
       </c>
@@ -15510,7 +16225,7 @@
         <v>26062785</v>
       </c>
     </row>
-    <row r="91" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B91" s="9">
         <v>43767</v>
       </c>
@@ -15642,7 +16357,7 @@
         <v>155648304</v>
       </c>
     </row>
-    <row r="92" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B92" s="9">
         <v>43769</v>
       </c>
@@ -15774,7 +16489,7 @@
         <v>14094864</v>
       </c>
     </row>
-    <row r="93" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B93" s="9">
         <v>43774</v>
       </c>
@@ -15906,7 +16621,7 @@
         <v>135323253</v>
       </c>
     </row>
-    <row r="94" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B94" s="9">
         <v>43776</v>
       </c>
@@ -16038,7 +16753,7 @@
         <v>87079212</v>
       </c>
     </row>
-    <row r="95" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B95" s="9">
         <v>43781</v>
       </c>
@@ -16170,7 +16885,7 @@
         <v>23784576</v>
       </c>
     </row>
-    <row r="96" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B96" s="9">
         <v>43783</v>
       </c>
@@ -16302,7 +17017,7 @@
         <v>262225089</v>
       </c>
     </row>
-    <row r="97" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B97" s="9">
         <v>43788</v>
       </c>
@@ -16434,7 +17149,7 @@
         <v>103831420</v>
       </c>
     </row>
-    <row r="98" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B98" s="9">
         <v>43790</v>
       </c>
@@ -16566,7 +17281,7 @@
         <v>296086675</v>
       </c>
     </row>
-    <row r="99" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B99" s="9">
         <v>43795</v>
       </c>
@@ -16698,7 +17413,7 @@
         <v>117509216</v>
       </c>
     </row>
-    <row r="100" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B100" s="9">
         <v>43797</v>
       </c>
@@ -16830,7 +17545,7 @@
         <v>149297984</v>
       </c>
     </row>
-    <row r="101" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B101" s="9">
         <v>43802</v>
       </c>
@@ -16962,7 +17677,7 @@
         <v>173712438</v>
       </c>
     </row>
-    <row r="102" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B102" s="9">
         <v>43804</v>
       </c>
@@ -17094,7 +17809,7 @@
         <v>57488560</v>
       </c>
     </row>
-    <row r="103" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B103" s="9">
         <v>43809</v>
       </c>
@@ -17226,7 +17941,7 @@
         <v>48104954</v>
       </c>
     </row>
-    <row r="104" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B104" s="9">
         <v>43811</v>
       </c>
@@ -17358,7 +18073,7 @@
         <v>83550106</v>
       </c>
     </row>
-    <row r="105" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B105" s="9">
         <v>43816</v>
       </c>
@@ -17490,7 +18205,7 @@
         <v>325547810</v>
       </c>
     </row>
-    <row r="106" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B106" s="9">
         <v>43818</v>
       </c>
@@ -17622,7 +18337,7 @@
         <v>382094139</v>
       </c>
     </row>
-    <row r="107" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B107" s="9">
         <v>43823</v>
       </c>
@@ -17754,7 +18469,7 @@
         <v>7182336</v>
       </c>
     </row>
-    <row r="108" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B108" s="9">
         <v>43825</v>
       </c>
@@ -17886,7 +18601,7 @@
         <v>161117370</v>
       </c>
     </row>
-    <row r="109" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B109" s="9">
         <v>43830</v>
       </c>
@@ -18018,7 +18733,7 @@
         <v>184650508</v>
       </c>
     </row>
-    <row r="110" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:45" x14ac:dyDescent="0.45">
       <c r="K110" s="9">
         <v>44189</v>
       </c>
@@ -18098,7 +18813,7 @@
         <v>26048125</v>
       </c>
     </row>
-    <row r="111" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:45" x14ac:dyDescent="0.45">
       <c r="K111" s="9">
         <v>44194</v>
       </c>
@@ -18178,7 +18893,7 @@
         <v>2866500</v>
       </c>
     </row>
-    <row r="112" spans="2:45" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:45" x14ac:dyDescent="0.45">
       <c r="K112" s="9">
         <v>44196</v>
       </c>
@@ -18243,7 +18958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269F6E73-815D-429F-AED7-6E9CBD0660FB}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -18251,19 +18966,19 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -18278,7 +18993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499955FE-4249-4527-BCFB-B5982939E3B6}">
   <dimension ref="D2:J29"/>
   <sheetViews>
@@ -18286,17 +19001,17 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="25" t="s">
         <v>81</v>
       </c>
@@ -18306,7 +19021,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D4" s="25"/>
       <c r="E4" s="10" t="s">
         <v>83</v>
@@ -18318,7 +19033,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D5">
         <v>2024</v>
       </c>
@@ -18339,7 +19054,7 @@
         <v>131.072</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D6" s="11" t="s">
         <v>87</v>
       </c>
@@ -18353,7 +19068,7 @@
         <v>167.11</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D7" s="11" t="s">
         <v>88</v>
       </c>
@@ -18367,7 +19082,7 @@
         <v>196.65</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D8" s="11" t="s">
         <v>89</v>
       </c>
@@ -18381,7 +19096,7 @@
         <v>94.34</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D9" s="11" t="s">
         <v>90</v>
       </c>
@@ -18395,7 +19110,7 @@
         <v>68.87</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D10" s="11" t="s">
         <v>91</v>
       </c>
@@ -18409,7 +19124,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D11" s="11" t="s">
         <v>92</v>
       </c>
@@ -18423,7 +19138,7 @@
         <v>95.16</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D12" s="11" t="s">
         <v>93</v>
       </c>
@@ -18437,7 +19152,7 @@
         <v>81.77</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D13" s="11" t="s">
         <v>94</v>
       </c>
@@ -18451,7 +19166,7 @@
         <v>77.06</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D14" s="11" t="s">
         <v>95</v>
       </c>
@@ -18465,7 +19180,7 @@
         <v>101.76</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D15" s="11" t="s">
         <v>96</v>
       </c>
@@ -18479,7 +19194,7 @@
         <v>142.26</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D16" s="11" t="s">
         <v>97</v>
       </c>
@@ -18493,7 +19208,7 @@
         <v>152.1</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D17" s="11" t="s">
         <v>98</v>
       </c>
@@ -18507,7 +19222,7 @@
         <v>160.83000000000001</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D18" s="11" t="s">
         <v>99</v>
       </c>
@@ -18521,7 +19236,7 @@
         <v>126.6276</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D19" s="11" t="s">
         <v>100</v>
       </c>
@@ -18535,7 +19250,7 @@
         <v>117.768</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D20" s="11" t="s">
         <v>101</v>
       </c>
@@ -18549,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D21" s="11" t="s">
         <v>102</v>
       </c>
@@ -18563,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D22" s="11" t="s">
         <v>103</v>
       </c>
@@ -18577,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D23" s="11" t="s">
         <v>104</v>
       </c>
@@ -18591,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D24" s="11" t="s">
         <v>105</v>
       </c>
@@ -18605,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D25" s="11" t="s">
         <v>106</v>
       </c>
@@ -18619,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D26" s="11" t="s">
         <v>107</v>
       </c>
@@ -18633,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D27" s="11" t="s">
         <v>108</v>
       </c>
@@ -18647,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D28" s="11" t="s">
         <v>109</v>
       </c>
@@ -18661,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>110</v>
       </c>
@@ -18676,146 +19391,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D3F52F-9127-4820-9A83-C098699E6CD6}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED27DC6-1EA5-4934-A596-CC53AC96A6A4}">
+  <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759FA78A-CACE-4A89-A85F-180CB5655208}">
-  <dimension ref="A4:F13"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>1354</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>282</v>
-      </c>
-      <c r="F8">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>137347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <v>495</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -18826,28 +19424,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED27DC6-1EA5-4934-A596-CC53AC96A6A4}">
-  <dimension ref="A3:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EFE8C1-9B23-47EA-8ACB-87116D7E9268}">
+  <dimension ref="B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>135</v>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
